--- a/static/files/resources/modelli/comuni/adotta-il-modello-di-sito-comunale/definisci-architettura-e-contenuti/Architettura-informazione-sito-Comuni.xlsx
+++ b/static/files/resources/modelli/comuni/adotta-il-modello-di-sito-comunale/definisci-architettura-e-contenuti/Architettura-informazione-sito-Comuni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielenole/Desktop/new modelli/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielenole/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B669C-16A2-7643-B0CF-1BB9CFD6EC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835B39D7-A3BA-0241-B931-BB280967E74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" firstSheet="31" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduzione" sheetId="1" r:id="rId1"/>
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2337" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2336" uniqueCount="1173">
   <si>
     <t>v2.0</t>
   </si>
@@ -2288,9 +2288,6 @@
   </si>
   <si>
     <t>http://eurovoc.europa.eu/3967</t>
-  </si>
-  <si>
-    <t>Assistenza agli invalidi</t>
   </si>
   <si>
     <t>http://eurovoc.europa.eu/4209</t>
@@ -4477,9 +4474,6 @@
     <t>1…n</t>
   </si>
   <si>
-    <t>Persona con disabilità</t>
-  </si>
-  <si>
     <t>Testo breve (max. 70 char)</t>
   </si>
   <si>
@@ -4517,6 +4511,9 @@
   </si>
   <si>
     <t>Aggiunta della voce "Persona con disabilità alla tassonomia ARGOMENTI; aggiornamento della cardinalità dell'attributo Incarico per PERSONA PUBBLICA; Aggiornamento della cardinalità dell'attributo Persona per INCARICO; Aggiornamento del limite massimo dei titoli a 70 caratteri e delle descrizioni brevi a 160 caratteri per tutte le tipologie di contenuto.</t>
+  </si>
+  <si>
+    <t>Assistenza alle persone con disabilità</t>
   </si>
 </sst>
 </file>
@@ -5802,6 +5799,9 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5854,9 +5854,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="23" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6406,27 +6403,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="180" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="149" customFormat="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>363</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
       <c r="A3" s="150" t="s">
@@ -6463,7 +6460,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -6497,13 +6494,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="127" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C6" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E6" s="100"/>
       <c r="F6" s="100"/>
@@ -6825,27 +6822,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" s="104" customFormat="1">
+      <c r="A2" s="178" t="s">
         <v>1146</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="117"/>
-    </row>
-    <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -6883,7 +6880,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -6921,7 +6918,7 @@
         <v>228</v>
       </c>
       <c r="D6" s="113" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E6" s="99"/>
       <c r="F6" s="99"/>
@@ -6965,13 +6962,13 @@
         <v>331</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="100"/>
@@ -7366,27 +7363,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="180" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
-      <c r="E1" s="180"/>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
+      <c r="A1" s="181" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -7440,13 +7437,13 @@
         <v>416</v>
       </c>
       <c r="B5" s="158" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C5" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
@@ -7500,7 +7497,7 @@
         <v>228</v>
       </c>
       <c r="D8" s="113" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E8" s="99"/>
       <c r="F8" s="99"/>
@@ -7532,13 +7529,13 @@
         <v>331</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C10" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D10" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E10" s="100"/>
       <c r="F10" s="100"/>
@@ -8323,27 +8320,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" s="104" customFormat="1">
+      <c r="A2" s="178" t="s">
         <v>1149</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="117"/>
-    </row>
-    <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
-        <v>1150</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -8375,13 +8372,13 @@
         <v>463</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -8537,7 +8534,7 @@
         <v>219</v>
       </c>
       <c r="D12" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E12" s="100"/>
       <c r="F12" s="100"/>
@@ -8916,27 +8913,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" s="104" customFormat="1">
+      <c r="A2" s="178" t="s">
         <v>1151</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="117"/>
-    </row>
-    <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -8974,7 +8971,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -8992,7 +8989,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E5" s="98"/>
       <c r="F5" s="100"/>
@@ -9191,27 +9188,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="180" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="182" t="s">
         <v>514</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -9249,7 +9246,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -9476,27 +9473,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="180" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>530</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -9534,7 +9531,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -9782,27 +9779,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="180" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="117"/>
+    </row>
+    <row r="2" spans="1:8" s="104" customFormat="1">
+      <c r="A2" s="178" t="s">
         <v>1155</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="117"/>
-    </row>
-    <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -9834,13 +9831,13 @@
         <v>463</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -9978,7 +9975,7 @@
         <v>219</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E11" s="100"/>
       <c r="F11" s="100"/>
@@ -10275,27 +10272,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="180" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>556</v>
       </c>
-      <c r="B2" s="182"/>
-      <c r="C2" s="182"/>
-      <c r="D2" s="182"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="182"/>
-      <c r="G2" s="182"/>
+      <c r="B2" s="183"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
+      <c r="E2" s="183"/>
+      <c r="F2" s="183"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -10327,13 +10324,13 @@
         <v>557</v>
       </c>
       <c r="B4" s="108" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C4" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -10532,27 +10529,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="36">
-      <c r="A1" s="179" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
+      <c r="A1" s="180" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="184" t="s">
         <v>570</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -10590,7 +10587,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="158"/>
       <c r="F4" s="100"/>
@@ -13379,10 +13376,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:Z267"/>
+  <dimension ref="A1:Z266"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13394,16 +13391,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="184"/>
+      <c r="B1" s="185"/>
     </row>
     <row r="2" spans="1:2" ht="22">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>584</v>
       </c>
-      <c r="B2" s="185"/>
+      <c r="B2" s="186"/>
     </row>
     <row r="3" spans="1:2" ht="23">
       <c r="A3" s="60" t="s">
@@ -13455,495 +13452,493 @@
     </row>
     <row r="9" spans="1:2" ht="23">
       <c r="A9" s="61" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B9" s="62" t="s">
         <v>597</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="23">
       <c r="A10" s="61" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="62" t="s">
         <v>599</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="23">
       <c r="A11" s="61" t="s">
+        <v>600</v>
+      </c>
+      <c r="B11" s="62" t="s">
         <v>601</v>
-      </c>
-      <c r="B11" s="62" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="23">
       <c r="A12" s="61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="62" t="s">
         <v>603</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="23">
       <c r="A13" s="61" t="s">
+        <v>604</v>
+      </c>
+      <c r="B13" s="62" t="s">
         <v>605</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="23">
       <c r="A14" s="61" t="s">
+        <v>606</v>
+      </c>
+      <c r="B14" s="62" t="s">
         <v>607</v>
-      </c>
-      <c r="B14" s="62" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="23">
       <c r="A15" s="61" t="s">
+        <v>608</v>
+      </c>
+      <c r="B15" s="62" t="s">
         <v>609</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="23">
       <c r="A16" s="61" t="s">
+        <v>610</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>611</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23">
       <c r="A17" s="61" t="s">
+        <v>612</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>613</v>
-      </c>
-      <c r="B17" s="62" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="23">
       <c r="A18" s="61" t="s">
+        <v>614</v>
+      </c>
+      <c r="B18" s="62" t="s">
         <v>615</v>
-      </c>
-      <c r="B18" s="62" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23">
       <c r="A19" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>617</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="23">
       <c r="A20" s="61" t="s">
+        <v>618</v>
+      </c>
+      <c r="B20" s="62" t="s">
         <v>619</v>
-      </c>
-      <c r="B20" s="62" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23">
       <c r="A21" s="61" t="s">
+        <v>620</v>
+      </c>
+      <c r="B21" s="62" t="s">
         <v>621</v>
-      </c>
-      <c r="B21" s="62" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="23">
       <c r="A22" s="61" t="s">
+        <v>622</v>
+      </c>
+      <c r="B22" s="62" t="s">
         <v>623</v>
-      </c>
-      <c r="B22" s="62" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="23">
       <c r="A23" s="61" t="s">
+        <v>624</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>625</v>
-      </c>
-      <c r="B23" s="62" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="23">
       <c r="A24" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="B24" s="62" t="s">
         <v>627</v>
-      </c>
-      <c r="B24" s="62" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="23">
       <c r="A25" s="61" t="s">
+        <v>628</v>
+      </c>
+      <c r="B25" s="62" t="s">
         <v>629</v>
-      </c>
-      <c r="B25" s="62" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="23">
       <c r="A26" s="61" t="s">
+        <v>630</v>
+      </c>
+      <c r="B26" s="62" t="s">
         <v>631</v>
-      </c>
-      <c r="B26" s="62" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="23">
       <c r="A27" s="61" t="s">
+        <v>632</v>
+      </c>
+      <c r="B27" s="62" t="s">
         <v>633</v>
-      </c>
-      <c r="B27" s="62" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="23">
       <c r="A28" s="61" t="s">
+        <v>634</v>
+      </c>
+      <c r="B28" s="62" t="s">
         <v>635</v>
-      </c>
-      <c r="B28" s="62" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="23">
       <c r="A29" s="61" t="s">
+        <v>636</v>
+      </c>
+      <c r="B29" s="62" t="s">
         <v>637</v>
-      </c>
-      <c r="B29" s="62" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="23">
       <c r="A30" s="61" t="s">
+        <v>638</v>
+      </c>
+      <c r="B30" s="62" t="s">
         <v>639</v>
-      </c>
-      <c r="B30" s="62" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="23">
       <c r="A31" s="61" t="s">
+        <v>640</v>
+      </c>
+      <c r="B31" s="62" t="s">
         <v>641</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="23">
       <c r="A32" s="61" t="s">
+        <v>642</v>
+      </c>
+      <c r="B32" s="62" t="s">
         <v>643</v>
-      </c>
-      <c r="B32" s="62" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="23">
       <c r="A33" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="B33" s="62" t="s">
         <v>645</v>
-      </c>
-      <c r="B33" s="62" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="23">
       <c r="A34" s="61" t="s">
+        <v>646</v>
+      </c>
+      <c r="B34" s="62" t="s">
         <v>647</v>
-      </c>
-      <c r="B34" s="62" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="23">
       <c r="A35" s="61" t="s">
+        <v>648</v>
+      </c>
+      <c r="B35" s="62" t="s">
         <v>649</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="23">
       <c r="A36" s="61" t="s">
+        <v>650</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>651</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="23">
       <c r="A37" s="61" t="s">
+        <v>652</v>
+      </c>
+      <c r="B37" s="62" t="s">
         <v>653</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="23">
       <c r="A38" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B38" s="62" t="s">
         <v>655</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="23">
       <c r="A39" s="61" t="s">
+        <v>656</v>
+      </c>
+      <c r="B39" s="62" t="s">
         <v>657</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="23">
       <c r="A40" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="B40" s="62" t="s">
         <v>659</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="23">
       <c r="A41" s="61" t="s">
+        <v>660</v>
+      </c>
+      <c r="B41" s="62" t="s">
         <v>661</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="23">
       <c r="A42" s="61" t="s">
+        <v>662</v>
+      </c>
+      <c r="B42" s="62" t="s">
         <v>663</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="23">
       <c r="A43" s="61" t="s">
+        <v>664</v>
+      </c>
+      <c r="B43" s="62" t="s">
         <v>665</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="23">
       <c r="A44" s="61" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B44" s="62"/>
+        <v>666</v>
+      </c>
+      <c r="B44" s="62" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="23">
       <c r="A45" s="61" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="23">
       <c r="A46" s="61" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="23">
       <c r="A47" s="61" t="s">
-        <v>671</v>
-      </c>
-      <c r="B47" s="62" t="s">
         <v>672</v>
       </c>
+      <c r="B47" s="62"/>
     </row>
     <row r="48" spans="1:2" ht="23">
       <c r="A48" s="61" t="s">
         <v>673</v>
       </c>
-      <c r="B48" s="62"/>
+      <c r="B48" s="62" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="49" spans="1:26" ht="23">
       <c r="A49" s="61" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B49" s="62" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="23">
       <c r="A50" s="61" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B50" s="62" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="23">
       <c r="A51" s="61" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="23">
       <c r="A52" s="61" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="23">
       <c r="A53" s="61" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:26" ht="23">
       <c r="A54" s="61" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:26" ht="23">
       <c r="A55" s="61" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:26" ht="23">
       <c r="A56" s="61" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>689</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="30"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
+      <c r="T56" s="30"/>
+      <c r="U56" s="30"/>
+      <c r="V56" s="30"/>
+      <c r="W56" s="30"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
+      <c r="Z56" s="30"/>
     </row>
     <row r="57" spans="1:26" ht="23">
       <c r="A57" s="61" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B57" s="62" t="s">
-        <v>691</v>
-      </c>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
+        <v>692</v>
+      </c>
     </row>
     <row r="58" spans="1:26" ht="23">
       <c r="A58" s="61" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:26" ht="23">
       <c r="A59" s="61" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="23">
       <c r="A60" s="61" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="23">
       <c r="A61" s="61" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="23">
       <c r="A62" s="61" t="s">
-        <v>700</v>
-      </c>
-      <c r="B62" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="63" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="63" spans="1:26" ht="23">
       <c r="A63" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B63" s="63" t="s">
         <v>702</v>
+      </c>
+      <c r="B63" s="62" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="23">
       <c r="A64" s="61" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B64" s="62" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="23">
       <c r="A65" s="61" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B65" s="62" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="23">
       <c r="A66" s="61" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B66" s="62" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="23">
-      <c r="A67" s="61" t="s">
         <v>709</v>
       </c>
-      <c r="B67" s="62" t="s">
-        <v>710</v>
-      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30"/>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="30"/>
@@ -14740,10 +14735,6 @@
     <row r="266" spans="1:2">
       <c r="A266" s="30"/>
       <c r="B266" s="30"/>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="30"/>
-      <c r="B267" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -14792,28 +14783,28 @@
     <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-1300-000026000000}"/>
     <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-1300-000027000000}"/>
     <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-1300-000028000000}"/>
-    <hyperlink ref="B45" r:id="rId42" xr:uid="{00000000-0004-0000-1300-000029000000}"/>
-    <hyperlink ref="B46" r:id="rId43" xr:uid="{00000000-0004-0000-1300-00002A000000}"/>
-    <hyperlink ref="B47" r:id="rId44" xr:uid="{00000000-0004-0000-1300-00002B000000}"/>
-    <hyperlink ref="B49" r:id="rId45" xr:uid="{00000000-0004-0000-1300-00002C000000}"/>
-    <hyperlink ref="B50" r:id="rId46" xr:uid="{00000000-0004-0000-1300-00002D000000}"/>
-    <hyperlink ref="B51" r:id="rId47" xr:uid="{00000000-0004-0000-1300-00002E000000}"/>
-    <hyperlink ref="B52" r:id="rId48" xr:uid="{00000000-0004-0000-1300-00002F000000}"/>
-    <hyperlink ref="B53" r:id="rId49" xr:uid="{00000000-0004-0000-1300-000030000000}"/>
-    <hyperlink ref="B54" r:id="rId50" xr:uid="{00000000-0004-0000-1300-000031000000}"/>
-    <hyperlink ref="B55" r:id="rId51" xr:uid="{00000000-0004-0000-1300-000032000000}"/>
-    <hyperlink ref="B56" r:id="rId52" xr:uid="{00000000-0004-0000-1300-000033000000}"/>
-    <hyperlink ref="B57" r:id="rId53" xr:uid="{00000000-0004-0000-1300-000034000000}"/>
-    <hyperlink ref="B58" r:id="rId54" xr:uid="{00000000-0004-0000-1300-000035000000}"/>
-    <hyperlink ref="B59" r:id="rId55" xr:uid="{00000000-0004-0000-1300-000036000000}"/>
-    <hyperlink ref="B60" r:id="rId56" xr:uid="{00000000-0004-0000-1300-000037000000}"/>
-    <hyperlink ref="B61" r:id="rId57" xr:uid="{00000000-0004-0000-1300-000038000000}"/>
-    <hyperlink ref="B62" r:id="rId58" xr:uid="{00000000-0004-0000-1300-000039000000}"/>
-    <hyperlink ref="B63" r:id="rId59" xr:uid="{00000000-0004-0000-1300-00003A000000}"/>
-    <hyperlink ref="B64" r:id="rId60" xr:uid="{00000000-0004-0000-1300-00003B000000}"/>
-    <hyperlink ref="B65" r:id="rId61" xr:uid="{00000000-0004-0000-1300-00003C000000}"/>
-    <hyperlink ref="B66" r:id="rId62" xr:uid="{00000000-0004-0000-1300-00003D000000}"/>
-    <hyperlink ref="B67" r:id="rId63" xr:uid="{00000000-0004-0000-1300-00003E000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-1300-000029000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-1300-00002A000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-1300-00002B000000}"/>
+    <hyperlink ref="B48" r:id="rId45" xr:uid="{00000000-0004-0000-1300-00002C000000}"/>
+    <hyperlink ref="B49" r:id="rId46" xr:uid="{00000000-0004-0000-1300-00002D000000}"/>
+    <hyperlink ref="B50" r:id="rId47" xr:uid="{00000000-0004-0000-1300-00002E000000}"/>
+    <hyperlink ref="B51" r:id="rId48" xr:uid="{00000000-0004-0000-1300-00002F000000}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{00000000-0004-0000-1300-000030000000}"/>
+    <hyperlink ref="B53" r:id="rId50" xr:uid="{00000000-0004-0000-1300-000031000000}"/>
+    <hyperlink ref="B54" r:id="rId51" xr:uid="{00000000-0004-0000-1300-000032000000}"/>
+    <hyperlink ref="B55" r:id="rId52" xr:uid="{00000000-0004-0000-1300-000033000000}"/>
+    <hyperlink ref="B56" r:id="rId53" xr:uid="{00000000-0004-0000-1300-000034000000}"/>
+    <hyperlink ref="B57" r:id="rId54" xr:uid="{00000000-0004-0000-1300-000035000000}"/>
+    <hyperlink ref="B58" r:id="rId55" xr:uid="{00000000-0004-0000-1300-000036000000}"/>
+    <hyperlink ref="B59" r:id="rId56" xr:uid="{00000000-0004-0000-1300-000037000000}"/>
+    <hyperlink ref="B60" r:id="rId57" xr:uid="{00000000-0004-0000-1300-000038000000}"/>
+    <hyperlink ref="B61" r:id="rId58" xr:uid="{00000000-0004-0000-1300-000039000000}"/>
+    <hyperlink ref="B62" r:id="rId59" xr:uid="{00000000-0004-0000-1300-00003A000000}"/>
+    <hyperlink ref="B63" r:id="rId60" xr:uid="{00000000-0004-0000-1300-00003B000000}"/>
+    <hyperlink ref="B64" r:id="rId61" xr:uid="{00000000-0004-0000-1300-00003C000000}"/>
+    <hyperlink ref="B65" r:id="rId62" xr:uid="{00000000-0004-0000-1300-00003D000000}"/>
+    <hyperlink ref="B66" r:id="rId63" xr:uid="{00000000-0004-0000-1300-00003E000000}"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653551" footer="0.98385826771653551"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14838,38 +14829,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="35.5" customHeight="1">
+      <c r="A2" s="187" t="s">
         <v>711</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="35.5" customHeight="1">
-      <c r="A2" s="186" t="s">
-        <v>712</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -14877,7 +14868,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="65" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -14885,7 +14876,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="65" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -14893,7 +14884,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="65" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -14901,7 +14892,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="65" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -14909,7 +14900,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="65" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -14917,7 +14908,7 @@
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="65" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -14925,7 +14916,7 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="65" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="68"/>
@@ -14933,7 +14924,7 @@
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="65" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="68"/>
@@ -14941,7 +14932,7 @@
     </row>
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="68"/>
@@ -14949,7 +14940,7 @@
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="65" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -14957,7 +14948,7 @@
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="65" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="68"/>
@@ -14965,7 +14956,7 @@
     </row>
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="65" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="68"/>
@@ -14973,7 +14964,7 @@
     </row>
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="65" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
@@ -14981,7 +14972,7 @@
     </row>
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="65" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="68"/>
@@ -14989,7 +14980,7 @@
     </row>
     <row r="19" spans="1:4" ht="22">
       <c r="A19" s="65" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="68"/>
@@ -14997,7 +14988,7 @@
     </row>
     <row r="20" spans="1:4" ht="22">
       <c r="A20" s="65" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="68"/>
@@ -15005,7 +14996,7 @@
     </row>
     <row r="21" spans="1:4" ht="22">
       <c r="A21" s="65" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="68"/>
@@ -15013,7 +15004,7 @@
     </row>
     <row r="22" spans="1:4" ht="22">
       <c r="A22" s="65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="68"/>
@@ -15069,38 +15060,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>735</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="187" t="s">
         <v>736</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="186" t="s">
-        <v>737</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -15108,7 +15099,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="65" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="67"/>
@@ -15116,7 +15107,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -15124,7 +15115,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="65" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -15132,7 +15123,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="65" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -15140,7 +15131,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="65" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -15148,7 +15139,7 @@
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="65" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -15156,7 +15147,7 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="68"/>
@@ -15164,7 +15155,7 @@
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="68"/>
@@ -15172,7 +15163,7 @@
     </row>
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="65" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="68"/>
@@ -15180,7 +15171,7 @@
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="65" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -15188,7 +15179,7 @@
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="65" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="68"/>
@@ -15196,7 +15187,7 @@
     </row>
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="65" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="68"/>
@@ -15204,7 +15195,7 @@
     </row>
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="65" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
@@ -15212,7 +15203,7 @@
     </row>
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="65" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="68"/>
@@ -15261,38 +15252,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>752</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="187" t="s">
         <v>753</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="186" t="s">
-        <v>754</v>
-      </c>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="67" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -15301,7 +15292,7 @@
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="30"/>
       <c r="B5" s="67" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -15309,14 +15300,14 @@
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="30"/>
       <c r="B6" s="67" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="68"/>
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="67" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -15325,7 +15316,7 @@
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="30"/>
       <c r="B8" s="67" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="68"/>
@@ -15333,7 +15324,7 @@
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="30"/>
       <c r="B9" s="67" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -15341,14 +15332,14 @@
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="30"/>
       <c r="B10" s="67" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="67" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="68"/>
@@ -15357,7 +15348,7 @@
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="30"/>
       <c r="B12" s="67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -15365,7 +15356,7 @@
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="30"/>
       <c r="B13" s="67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -15373,7 +15364,7 @@
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="30"/>
       <c r="B14" s="67" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="68"/>
@@ -15381,7 +15372,7 @@
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="30"/>
       <c r="B15" s="67" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -15389,7 +15380,7 @@
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="30"/>
       <c r="B16" s="67" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
@@ -15397,7 +15388,7 @@
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="30"/>
       <c r="B17" s="67" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C17" s="68"/>
       <c r="D17" s="68"/>
@@ -15405,7 +15396,7 @@
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="30"/>
       <c r="B18" s="67" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -15436,38 +15427,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>769</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="188" t="s">
         <v>770</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="187" t="s">
-        <v>771</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="67" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -15475,7 +15466,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -15483,7 +15474,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="67" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -15515,33 +15506,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>774</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="188" t="s">
         <v>775</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="187" t="s">
-        <v>776</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
@@ -15554,7 +15545,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -15562,7 +15553,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="67" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -15596,38 +15587,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>778</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="189" t="s">
         <v>779</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="188" t="s">
-        <v>780</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B4" s="66"/>
       <c r="C4" s="67"/>
@@ -15636,7 +15627,7 @@
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="66"/>
       <c r="B5" s="65" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -15644,7 +15635,7 @@
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="66"/>
       <c r="B6" s="65" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="68"/>
@@ -15652,7 +15643,7 @@
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="66"/>
       <c r="B7" s="65" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="68"/>
@@ -15660,7 +15651,7 @@
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="66"/>
       <c r="B8" s="65" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="68"/>
@@ -15668,14 +15659,14 @@
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="66"/>
       <c r="B9" s="65" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="65" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="68"/>
@@ -15684,7 +15675,7 @@
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="67"/>
       <c r="B11" s="65" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
@@ -15692,7 +15683,7 @@
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="67"/>
       <c r="B12" s="65" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -15700,14 +15691,14 @@
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="67"/>
       <c r="B13" s="65" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="65" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -15716,7 +15707,7 @@
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="67"/>
       <c r="B15" s="65" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -15724,14 +15715,14 @@
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="67"/>
       <c r="B16" s="65" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C16" s="68"/>
       <c r="D16" s="68"/>
     </row>
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="65" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
@@ -15740,7 +15731,7 @@
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="67"/>
       <c r="B18" s="65" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C18" s="68"/>
       <c r="D18" s="68"/>
@@ -15748,7 +15739,7 @@
     <row r="19" spans="1:4" ht="22">
       <c r="A19" s="67"/>
       <c r="B19" s="65" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="68"/>
       <c r="D19" s="68"/>
@@ -15756,7 +15747,7 @@
     <row r="20" spans="1:4" ht="22">
       <c r="A20" s="67"/>
       <c r="B20" s="65" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C20" s="68"/>
       <c r="D20" s="68"/>
@@ -15764,7 +15755,7 @@
     <row r="21" spans="1:4" ht="22">
       <c r="A21" s="67"/>
       <c r="B21" s="65" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="68"/>
@@ -15772,7 +15763,7 @@
     <row r="22" spans="1:4" ht="22">
       <c r="A22" s="67"/>
       <c r="B22" s="65" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -15780,7 +15771,7 @@
     <row r="23" spans="1:4" ht="22">
       <c r="A23" s="67"/>
       <c r="B23" s="65" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
@@ -15788,7 +15779,7 @@
     <row r="24" spans="1:4" ht="22">
       <c r="A24" s="67"/>
       <c r="B24" s="65" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C24" s="68"/>
       <c r="D24" s="68"/>
@@ -15796,7 +15787,7 @@
     <row r="25" spans="1:4" ht="22">
       <c r="A25" s="67"/>
       <c r="B25" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C25" s="68"/>
       <c r="D25" s="68"/>
@@ -15804,7 +15795,7 @@
     <row r="26" spans="1:4" ht="22">
       <c r="A26" s="67"/>
       <c r="B26" s="65" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -15812,7 +15803,7 @@
     <row r="27" spans="1:4" ht="22">
       <c r="A27" s="67"/>
       <c r="B27" s="65" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="68"/>
@@ -15820,7 +15811,7 @@
     <row r="28" spans="1:4" ht="22">
       <c r="A28" s="67"/>
       <c r="B28" s="65" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
@@ -15828,7 +15819,7 @@
     <row r="29" spans="1:4" ht="22">
       <c r="A29" s="67"/>
       <c r="B29" s="65" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -15836,7 +15827,7 @@
     <row r="30" spans="1:4" ht="22">
       <c r="A30" s="67"/>
       <c r="B30" s="65" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
@@ -15844,7 +15835,7 @@
     <row r="31" spans="1:4" ht="22">
       <c r="A31" s="67"/>
       <c r="B31" s="65" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -15852,14 +15843,14 @@
     <row r="32" spans="1:4" ht="22">
       <c r="A32" s="67"/>
       <c r="B32" s="65" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
     </row>
     <row r="33" spans="1:4" ht="22">
       <c r="A33" s="65" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="68"/>
@@ -15868,7 +15859,7 @@
     <row r="34" spans="1:4" ht="22">
       <c r="A34" s="67"/>
       <c r="B34" s="65" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C34" s="68"/>
       <c r="D34" s="68"/>
@@ -15876,7 +15867,7 @@
     <row r="35" spans="1:4" ht="22">
       <c r="A35" s="67"/>
       <c r="B35" s="65" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -15884,7 +15875,7 @@
     <row r="36" spans="1:4" ht="22">
       <c r="A36" s="67"/>
       <c r="B36" s="65" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C36" s="68"/>
       <c r="D36" s="68"/>
@@ -15892,7 +15883,7 @@
     <row r="37" spans="1:4" ht="22">
       <c r="A37" s="67"/>
       <c r="B37" s="65" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C37" s="68"/>
       <c r="D37" s="68"/>
@@ -15900,7 +15891,7 @@
     <row r="38" spans="1:4" ht="22">
       <c r="A38" s="66"/>
       <c r="B38" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
@@ -15908,7 +15899,7 @@
     <row r="39" spans="1:4" ht="22">
       <c r="A39" s="66"/>
       <c r="B39" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C39" s="68"/>
       <c r="D39" s="68"/>
@@ -15916,7 +15907,7 @@
     <row r="40" spans="1:4" ht="22">
       <c r="A40" s="66"/>
       <c r="B40" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="68"/>
@@ -15924,7 +15915,7 @@
     <row r="41" spans="1:4" ht="22">
       <c r="A41" s="66"/>
       <c r="B41" s="69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C41" s="68"/>
       <c r="D41" s="68"/>
@@ -15932,7 +15923,7 @@
     <row r="42" spans="1:4" ht="22">
       <c r="A42" s="66"/>
       <c r="B42" s="69" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C42" s="68"/>
       <c r="D42" s="68"/>
@@ -15940,7 +15931,7 @@
     <row r="43" spans="1:4" ht="22">
       <c r="A43" s="66"/>
       <c r="B43" s="69" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C43" s="68"/>
       <c r="D43" s="68"/>
@@ -15948,7 +15939,7 @@
     <row r="44" spans="1:4" ht="22">
       <c r="A44" s="66"/>
       <c r="B44" s="69" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -15956,7 +15947,7 @@
     <row r="45" spans="1:4" ht="22">
       <c r="A45" s="66"/>
       <c r="B45" s="69" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
@@ -15964,7 +15955,7 @@
     <row r="46" spans="1:4" ht="22">
       <c r="A46" s="66"/>
       <c r="B46" s="69" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C46" s="68"/>
       <c r="D46" s="68"/>
@@ -15972,7 +15963,7 @@
     <row r="47" spans="1:4" ht="22">
       <c r="A47" s="66"/>
       <c r="B47" s="69" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C47" s="68"/>
       <c r="D47" s="68"/>
@@ -15980,7 +15971,7 @@
     <row r="48" spans="1:4" ht="22">
       <c r="A48" s="66"/>
       <c r="B48" s="69" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C48" s="68"/>
       <c r="D48" s="68"/>
@@ -15988,7 +15979,7 @@
     <row r="49" spans="1:4" ht="22">
       <c r="A49" s="66"/>
       <c r="B49" s="69" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C49" s="68"/>
       <c r="D49" s="68"/>
@@ -15996,7 +15987,7 @@
     <row r="50" spans="1:4" ht="22">
       <c r="A50" s="66"/>
       <c r="B50" s="69" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C50" s="68"/>
       <c r="D50" s="68"/>
@@ -16004,7 +15995,7 @@
     <row r="51" spans="1:4" ht="22">
       <c r="A51" s="66"/>
       <c r="B51" s="69" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C51" s="68"/>
       <c r="D51" s="68"/>
@@ -16012,14 +16003,14 @@
     <row r="52" spans="1:4" ht="22">
       <c r="A52" s="66"/>
       <c r="B52" s="69" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C52" s="68"/>
       <c r="D52" s="68"/>
     </row>
     <row r="53" spans="1:4" ht="22">
       <c r="A53" s="65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B53" s="67"/>
       <c r="C53" s="68"/>
@@ -16028,7 +16019,7 @@
     <row r="54" spans="1:4" ht="22">
       <c r="A54" s="67"/>
       <c r="B54" s="65" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
@@ -16036,7 +16027,7 @@
     <row r="55" spans="1:4" ht="22">
       <c r="A55" s="67"/>
       <c r="B55" s="65" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C55" s="68"/>
       <c r="D55" s="68"/>
@@ -16044,7 +16035,7 @@
     <row r="56" spans="1:4" ht="22">
       <c r="A56" s="67"/>
       <c r="B56" s="65" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C56" s="68"/>
       <c r="D56" s="68"/>
@@ -16052,7 +16043,7 @@
     <row r="57" spans="1:4" ht="22">
       <c r="A57" s="67"/>
       <c r="B57" s="65" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C57" s="68"/>
       <c r="D57" s="68"/>
@@ -16060,14 +16051,14 @@
     <row r="58" spans="1:4" ht="22">
       <c r="A58" s="67"/>
       <c r="B58" s="65" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="68"/>
     </row>
     <row r="59" spans="1:4" ht="22">
       <c r="A59" s="65" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B59" s="67"/>
       <c r="C59" s="68"/>
@@ -16076,7 +16067,7 @@
     <row r="60" spans="1:4" ht="22">
       <c r="A60" s="67"/>
       <c r="B60" s="65" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="68"/>
@@ -16084,7 +16075,7 @@
     <row r="61" spans="1:4" ht="22">
       <c r="A61" s="67"/>
       <c r="B61" s="65" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="68"/>
@@ -16092,7 +16083,7 @@
     <row r="62" spans="1:4" ht="22">
       <c r="A62" s="67"/>
       <c r="B62" s="65" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="68"/>
@@ -16100,14 +16091,14 @@
     <row r="63" spans="1:4" ht="22">
       <c r="A63" s="67"/>
       <c r="B63" s="65" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C63" s="68"/>
       <c r="D63" s="68"/>
     </row>
     <row r="64" spans="1:4" ht="22">
       <c r="A64" s="65" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B64" s="67"/>
       <c r="C64" s="68"/>
@@ -16116,7 +16107,7 @@
     <row r="65" spans="1:4" ht="22">
       <c r="A65" s="67"/>
       <c r="B65" s="65" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C65" s="68"/>
       <c r="D65" s="68"/>
@@ -16124,7 +16115,7 @@
     <row r="66" spans="1:4" ht="22">
       <c r="A66" s="67"/>
       <c r="B66" s="65" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C66" s="68"/>
       <c r="D66" s="68"/>
@@ -16132,7 +16123,7 @@
     <row r="67" spans="1:4" ht="22">
       <c r="A67" s="67"/>
       <c r="B67" s="65" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C67" s="68"/>
       <c r="D67" s="68"/>
@@ -16140,7 +16131,7 @@
     <row r="68" spans="1:4" ht="22">
       <c r="A68" s="67"/>
       <c r="B68" s="65" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C68" s="68"/>
       <c r="D68" s="68"/>
@@ -16148,7 +16139,7 @@
     <row r="69" spans="1:4" ht="22">
       <c r="A69" s="67"/>
       <c r="B69" s="65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C69" s="68"/>
       <c r="D69" s="68"/>
@@ -16156,7 +16147,7 @@
     <row r="70" spans="1:4" ht="22">
       <c r="A70" s="67"/>
       <c r="B70" s="65" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C70" s="68"/>
       <c r="D70" s="68"/>
@@ -16164,7 +16155,7 @@
     <row r="71" spans="1:4" ht="22">
       <c r="A71" s="67"/>
       <c r="B71" s="65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
@@ -16172,14 +16163,14 @@
     <row r="72" spans="1:4" ht="22">
       <c r="A72" s="67"/>
       <c r="B72" s="65" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C72" s="68"/>
       <c r="D72" s="68"/>
     </row>
     <row r="73" spans="1:4" ht="22">
       <c r="A73" s="65" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B73" s="67"/>
       <c r="C73" s="68"/>
@@ -16188,7 +16179,7 @@
     <row r="74" spans="1:4" ht="22">
       <c r="A74" s="67"/>
       <c r="B74" s="65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C74" s="68"/>
       <c r="D74" s="68"/>
@@ -16196,7 +16187,7 @@
     <row r="75" spans="1:4" ht="22">
       <c r="A75" s="67"/>
       <c r="B75" s="65" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C75" s="68"/>
       <c r="D75" s="68"/>
@@ -16204,7 +16195,7 @@
     <row r="76" spans="1:4" ht="22">
       <c r="A76" s="67"/>
       <c r="B76" s="65" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C76" s="68"/>
       <c r="D76" s="68"/>
@@ -16212,7 +16203,7 @@
     <row r="77" spans="1:4" ht="22">
       <c r="A77" s="67"/>
       <c r="B77" s="65" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C77" s="68"/>
       <c r="D77" s="68"/>
@@ -16220,7 +16211,7 @@
     <row r="78" spans="1:4" ht="22">
       <c r="A78" s="67"/>
       <c r="B78" s="65" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C78" s="68"/>
       <c r="D78" s="68"/>
@@ -16228,7 +16219,7 @@
     <row r="79" spans="1:4" ht="22">
       <c r="A79" s="67"/>
       <c r="B79" s="65" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C79" s="68"/>
       <c r="D79" s="68"/>
@@ -16236,14 +16227,14 @@
     <row r="80" spans="1:4" ht="22">
       <c r="A80" s="67"/>
       <c r="B80" s="65" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C80" s="68"/>
       <c r="D80" s="68"/>
     </row>
     <row r="81" spans="1:4" ht="22">
       <c r="A81" s="65" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B81" s="67"/>
       <c r="C81" s="68"/>
@@ -16252,7 +16243,7 @@
     <row r="82" spans="1:4" ht="22">
       <c r="A82" s="67"/>
       <c r="B82" s="65" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C82" s="68"/>
       <c r="D82" s="68"/>
@@ -16260,14 +16251,14 @@
     <row r="83" spans="1:4" ht="22">
       <c r="A83" s="67"/>
       <c r="B83" s="65" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C83" s="68"/>
       <c r="D83" s="68"/>
     </row>
     <row r="84" spans="1:4" ht="22">
       <c r="A84" s="65" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B84" s="67"/>
       <c r="C84" s="67"/>
@@ -16276,7 +16267,7 @@
     <row r="85" spans="1:4" ht="22">
       <c r="A85" s="67"/>
       <c r="B85" s="65" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C85" s="67"/>
       <c r="D85" s="70"/>
@@ -16284,7 +16275,7 @@
     <row r="86" spans="1:4" ht="22">
       <c r="A86" s="67"/>
       <c r="B86" s="65" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C86" s="67"/>
       <c r="D86" s="70"/>
@@ -16292,14 +16283,14 @@
     <row r="87" spans="1:4" ht="22">
       <c r="A87" s="67"/>
       <c r="B87" s="65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C87" s="67"/>
       <c r="D87" s="70"/>
     </row>
     <row r="88" spans="1:4" ht="22">
       <c r="A88" s="65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B88" s="67"/>
       <c r="C88" s="67"/>
@@ -16308,7 +16299,7 @@
     <row r="89" spans="1:4" ht="22">
       <c r="A89" s="67"/>
       <c r="B89" s="65" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C89" s="67"/>
       <c r="D89" s="70"/>
@@ -16316,7 +16307,7 @@
     <row r="90" spans="1:4" ht="22">
       <c r="A90" s="67"/>
       <c r="B90" s="65" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C90" s="67"/>
       <c r="D90" s="70"/>
@@ -16324,7 +16315,7 @@
     <row r="91" spans="1:4" ht="22">
       <c r="A91" s="67"/>
       <c r="B91" s="65" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C91" s="67"/>
       <c r="D91" s="70"/>
@@ -16332,14 +16323,14 @@
     <row r="92" spans="1:4" ht="22">
       <c r="A92" s="67"/>
       <c r="B92" s="65" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C92" s="67"/>
       <c r="D92" s="70"/>
     </row>
     <row r="93" spans="1:4" ht="22">
       <c r="A93" s="65" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B93" s="67"/>
       <c r="C93" s="67"/>
@@ -16348,7 +16339,7 @@
     <row r="94" spans="1:4" ht="22">
       <c r="A94" s="67"/>
       <c r="B94" s="65" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C94" s="67"/>
       <c r="D94" s="70"/>
@@ -16356,7 +16347,7 @@
     <row r="95" spans="1:4" ht="22">
       <c r="A95" s="67"/>
       <c r="B95" s="65" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C95" s="67"/>
       <c r="D95" s="70"/>
@@ -16364,7 +16355,7 @@
     <row r="96" spans="1:4" ht="22">
       <c r="A96" s="67"/>
       <c r="B96" s="65" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C96" s="67"/>
       <c r="D96" s="70"/>
@@ -16372,7 +16363,7 @@
     <row r="97" spans="1:4" ht="22">
       <c r="A97" s="67"/>
       <c r="B97" s="65" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C97" s="67"/>
       <c r="D97" s="70"/>
@@ -16503,38 +16494,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>876</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
@@ -16543,7 +16534,7 @@
     <row r="5" spans="1:4" ht="23">
       <c r="A5" s="67"/>
       <c r="B5" s="71" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
@@ -16552,7 +16543,7 @@
       <c r="A6" s="67"/>
       <c r="B6" s="68"/>
       <c r="C6" s="71" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D6" s="68"/>
     </row>
@@ -16560,7 +16551,7 @@
       <c r="A7" s="67"/>
       <c r="B7" s="68"/>
       <c r="C7" s="71" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D7" s="68"/>
     </row>
@@ -16568,7 +16559,7 @@
       <c r="A8" s="67"/>
       <c r="B8" s="68"/>
       <c r="C8" s="71" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="D8" s="68"/>
     </row>
@@ -16576,7 +16567,7 @@
       <c r="A9" s="67"/>
       <c r="B9" s="68"/>
       <c r="C9" s="71" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D9" s="68"/>
     </row>
@@ -16584,7 +16575,7 @@
       <c r="A10" s="67"/>
       <c r="B10" s="68"/>
       <c r="C10" s="71" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="D10" s="68"/>
     </row>
@@ -16592,7 +16583,7 @@
       <c r="A11" s="67"/>
       <c r="B11" s="68"/>
       <c r="C11" s="71" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D11" s="68"/>
     </row>
@@ -16600,7 +16591,7 @@
       <c r="A12" s="67"/>
       <c r="B12" s="68"/>
       <c r="C12" s="71" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D12" s="68"/>
     </row>
@@ -16608,7 +16599,7 @@
       <c r="A13" s="67"/>
       <c r="B13" s="68"/>
       <c r="C13" s="71" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D13" s="68"/>
     </row>
@@ -16616,14 +16607,14 @@
       <c r="A14" s="67"/>
       <c r="B14" s="68"/>
       <c r="C14" s="71" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:4" ht="23">
       <c r="A15" s="67"/>
       <c r="B15" s="71" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -16632,7 +16623,7 @@
       <c r="A16" s="67"/>
       <c r="B16" s="68"/>
       <c r="C16" s="71" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D16" s="68"/>
     </row>
@@ -16640,7 +16631,7 @@
       <c r="A17" s="67"/>
       <c r="B17" s="68"/>
       <c r="C17" s="71" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D17" s="68"/>
     </row>
@@ -16648,7 +16639,7 @@
       <c r="A18" s="67"/>
       <c r="B18" s="68"/>
       <c r="C18" s="71" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D18" s="68"/>
     </row>
@@ -16656,7 +16647,7 @@
       <c r="A19" s="67"/>
       <c r="B19" s="68"/>
       <c r="C19" s="71" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D19" s="68"/>
     </row>
@@ -16664,7 +16655,7 @@
       <c r="A20" s="67"/>
       <c r="B20" s="68"/>
       <c r="C20" s="71" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D20" s="68"/>
     </row>
@@ -16672,14 +16663,14 @@
       <c r="A21" s="67"/>
       <c r="B21" s="68"/>
       <c r="C21" s="71" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D21" s="68"/>
     </row>
     <row r="22" spans="1:4" ht="23">
       <c r="A22" s="67"/>
       <c r="B22" s="71" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C22" s="68"/>
       <c r="D22" s="68"/>
@@ -16688,7 +16679,7 @@
       <c r="A23" s="67"/>
       <c r="B23" s="68"/>
       <c r="C23" s="71" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D23" s="68"/>
     </row>
@@ -16696,7 +16687,7 @@
       <c r="A24" s="67"/>
       <c r="B24" s="68"/>
       <c r="C24" s="71" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D24" s="68"/>
     </row>
@@ -16704,14 +16695,14 @@
       <c r="A25" s="67"/>
       <c r="B25" s="68"/>
       <c r="C25" s="71" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D25" s="68"/>
     </row>
     <row r="26" spans="1:4" ht="23">
       <c r="A26" s="67"/>
       <c r="B26" s="71" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="68"/>
@@ -16720,13 +16711,13 @@
       <c r="A27" s="67"/>
       <c r="B27" s="68"/>
       <c r="C27" s="71" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D27" s="68"/>
     </row>
     <row r="28" spans="1:4" ht="22">
       <c r="A28" s="65" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
@@ -16735,7 +16726,7 @@
     <row r="29" spans="1:4" ht="23">
       <c r="A29" s="67"/>
       <c r="B29" s="71" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C29" s="68"/>
       <c r="D29" s="68"/>
@@ -16744,7 +16735,7 @@
       <c r="A30" s="67"/>
       <c r="B30" s="16"/>
       <c r="C30" s="71" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D30" s="68"/>
     </row>
@@ -16752,14 +16743,14 @@
       <c r="A31" s="67"/>
       <c r="B31" s="16"/>
       <c r="C31" s="71" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D31" s="68"/>
     </row>
     <row r="32" spans="1:4" ht="23">
       <c r="A32" s="67"/>
       <c r="B32" s="71" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C32" s="68"/>
       <c r="D32" s="68"/>
@@ -16768,7 +16759,7 @@
       <c r="A33" s="67"/>
       <c r="B33" s="16"/>
       <c r="C33" s="71" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D33" s="68"/>
     </row>
@@ -16776,14 +16767,14 @@
       <c r="A34" s="67"/>
       <c r="B34" s="16"/>
       <c r="C34" s="71" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D34" s="68"/>
     </row>
     <row r="35" spans="1:4" ht="23">
       <c r="A35" s="67"/>
       <c r="B35" s="71" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C35" s="68"/>
       <c r="D35" s="68"/>
@@ -16792,7 +16783,7 @@
       <c r="A36" s="67"/>
       <c r="B36" s="16"/>
       <c r="C36" s="71" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D36" s="68"/>
     </row>
@@ -16800,14 +16791,14 @@
       <c r="A37" s="67"/>
       <c r="B37" s="16"/>
       <c r="C37" s="71" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D37" s="68"/>
     </row>
     <row r="38" spans="1:4" ht="23">
       <c r="A38" s="67"/>
       <c r="B38" s="71" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C38" s="68"/>
       <c r="D38" s="68"/>
@@ -16816,7 +16807,7 @@
       <c r="A39" s="67"/>
       <c r="B39" s="16"/>
       <c r="C39" s="71" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D39" s="68"/>
     </row>
@@ -16824,7 +16815,7 @@
       <c r="A40" s="67"/>
       <c r="B40" s="16"/>
       <c r="C40" s="71" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D40" s="68"/>
     </row>
@@ -16832,7 +16823,7 @@
       <c r="A41" s="67"/>
       <c r="B41" s="16"/>
       <c r="C41" s="71" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D41" s="68"/>
     </row>
@@ -16840,7 +16831,7 @@
       <c r="A42" s="67"/>
       <c r="B42" s="16"/>
       <c r="C42" s="71" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D42" s="68"/>
     </row>
@@ -16848,7 +16839,7 @@
       <c r="A43" s="67"/>
       <c r="B43" s="16"/>
       <c r="C43" s="71" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D43" s="68"/>
     </row>
@@ -16856,14 +16847,14 @@
       <c r="A44" s="67"/>
       <c r="B44" s="16"/>
       <c r="C44" s="71" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D44" s="68"/>
     </row>
     <row r="45" spans="1:4" ht="23">
       <c r="A45" s="67"/>
       <c r="B45" s="71" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C45" s="68"/>
       <c r="D45" s="68"/>
@@ -16872,7 +16863,7 @@
       <c r="A46" s="67"/>
       <c r="B46" s="16"/>
       <c r="C46" s="71" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D46" s="68"/>
     </row>
@@ -16880,7 +16871,7 @@
       <c r="A47" s="67"/>
       <c r="B47" s="16"/>
       <c r="C47" s="71" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D47" s="68"/>
     </row>
@@ -16888,7 +16879,7 @@
       <c r="A48" s="67"/>
       <c r="B48" s="16"/>
       <c r="C48" s="71" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D48" s="68"/>
     </row>
@@ -16896,17 +16887,17 @@
       <c r="A49" s="67"/>
       <c r="B49" s="16"/>
       <c r="C49" s="71" t="s">
+        <v>921</v>
+      </c>
+      <c r="D49" s="68" t="s">
         <v>922</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="23">
       <c r="A50" s="67"/>
       <c r="B50" s="16"/>
       <c r="C50" s="71" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D50" s="68"/>
     </row>
@@ -16914,7 +16905,7 @@
       <c r="A51" s="67"/>
       <c r="B51" s="16"/>
       <c r="C51" s="71" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D51" s="68"/>
     </row>
@@ -16922,13 +16913,13 @@
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="71" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D52" s="68"/>
     </row>
     <row r="53" spans="1:4" ht="22">
       <c r="A53" s="65" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="68"/>
@@ -16937,7 +16928,7 @@
     <row r="54" spans="1:4" ht="22">
       <c r="A54" s="67"/>
       <c r="B54" s="72" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C54" s="68"/>
       <c r="D54" s="68"/>
@@ -16946,7 +16937,7 @@
       <c r="A55" s="67"/>
       <c r="B55" s="16"/>
       <c r="C55" s="72" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D55" s="68"/>
     </row>
@@ -16954,7 +16945,7 @@
       <c r="A56" s="67"/>
       <c r="B56" s="16"/>
       <c r="C56" s="72" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D56" s="68"/>
     </row>
@@ -16962,13 +16953,13 @@
       <c r="A57" s="67"/>
       <c r="B57" s="16"/>
       <c r="C57" s="72" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D57" s="68"/>
     </row>
     <row r="58" spans="1:4" ht="22">
       <c r="A58" s="65" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B58" s="68"/>
       <c r="C58" s="68"/>
@@ -16977,7 +16968,7 @@
     <row r="59" spans="1:4" ht="23">
       <c r="A59" s="67"/>
       <c r="B59" s="71" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="68"/>
@@ -16986,7 +16977,7 @@
       <c r="A60" s="67"/>
       <c r="B60" s="16"/>
       <c r="C60" s="71" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D60" s="68"/>
     </row>
@@ -16994,14 +16985,14 @@
       <c r="A61" s="67"/>
       <c r="B61" s="16"/>
       <c r="C61" s="71" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D61" s="68"/>
     </row>
     <row r="62" spans="1:4" ht="23">
       <c r="A62" s="67"/>
       <c r="B62" s="71" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="68"/>
@@ -17010,7 +17001,7 @@
       <c r="A63" s="67"/>
       <c r="B63" s="16"/>
       <c r="C63" s="71" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D63" s="68"/>
     </row>
@@ -17018,7 +17009,7 @@
       <c r="A64" s="67"/>
       <c r="B64" s="16"/>
       <c r="C64" s="71" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D64" s="68"/>
     </row>
@@ -17026,14 +17017,14 @@
       <c r="A65" s="67"/>
       <c r="B65" s="16"/>
       <c r="C65" s="71" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D65" s="68"/>
     </row>
     <row r="66" spans="1:4" ht="23">
       <c r="A66" s="67"/>
       <c r="B66" s="71" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C66" s="68"/>
       <c r="D66" s="68"/>
@@ -17042,13 +17033,13 @@
       <c r="A67" s="67"/>
       <c r="B67" s="16"/>
       <c r="C67" s="71" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D67" s="68"/>
     </row>
     <row r="68" spans="1:4" ht="22">
       <c r="A68" s="65" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B68" s="68"/>
       <c r="C68" s="68"/>
@@ -17057,7 +17048,7 @@
     <row r="69" spans="1:4" ht="23">
       <c r="A69" s="67"/>
       <c r="B69" s="71" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C69" s="68"/>
       <c r="D69" s="68"/>
@@ -17066,7 +17057,7 @@
       <c r="A70" s="67"/>
       <c r="B70" s="16"/>
       <c r="C70" s="71" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D70" s="68"/>
     </row>
@@ -17074,7 +17065,7 @@
       <c r="A71" s="67"/>
       <c r="B71" s="16"/>
       <c r="C71" s="71" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D71" s="68"/>
     </row>
@@ -17082,7 +17073,7 @@
       <c r="A72" s="67"/>
       <c r="B72" s="16"/>
       <c r="C72" s="71" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D72" s="68"/>
     </row>
@@ -17090,7 +17081,7 @@
       <c r="A73" s="67"/>
       <c r="B73" s="16"/>
       <c r="C73" s="71" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D73" s="68"/>
     </row>
@@ -17098,7 +17089,7 @@
       <c r="A74" s="67"/>
       <c r="B74" s="16"/>
       <c r="C74" s="71" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D74" s="68"/>
     </row>
@@ -17106,7 +17097,7 @@
       <c r="A75" s="67"/>
       <c r="B75" s="16"/>
       <c r="C75" s="71" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D75" s="68"/>
     </row>
@@ -17213,33 +17204,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>948</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>949</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>950</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="60" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="D3" s="60" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23">
@@ -17248,16 +17239,16 @@
       </c>
       <c r="B4" s="73"/>
       <c r="D4" s="68" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23">
       <c r="A5" s="71" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B5" s="73"/>
       <c r="D5" s="68" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23">
@@ -17266,7 +17257,7 @@
       </c>
       <c r="B6" s="73"/>
       <c r="D6" s="68" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23">
@@ -17275,7 +17266,7 @@
       </c>
       <c r="B7" s="73"/>
       <c r="D7" s="68" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23">
@@ -17284,7 +17275,7 @@
       </c>
       <c r="B8" s="73"/>
       <c r="D8" s="68" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23">
@@ -17293,7 +17284,7 @@
       </c>
       <c r="B9" s="73"/>
       <c r="D9" s="68" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23">
@@ -17302,7 +17293,7 @@
       </c>
       <c r="B10" s="73"/>
       <c r="D10" s="68" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23">
@@ -17311,16 +17302,16 @@
       </c>
       <c r="B11" s="73"/>
       <c r="D11" s="68" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23">
       <c r="A12" s="71" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B12" s="73"/>
       <c r="D12" s="68" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23">
@@ -17329,25 +17320,25 @@
       </c>
       <c r="B13" s="73"/>
       <c r="D13" s="68" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23">
       <c r="A14" s="71" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B14" s="73"/>
       <c r="D14" s="68" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23">
       <c r="A15" s="71" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B15" s="73"/>
       <c r="D15" s="68" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23">
@@ -17356,7 +17347,7 @@
       </c>
       <c r="B16" s="73"/>
       <c r="D16" s="68" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23">
@@ -17365,7 +17356,7 @@
       </c>
       <c r="B17" s="73"/>
       <c r="D17" s="68" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23">
@@ -17374,7 +17365,7 @@
       </c>
       <c r="B18" s="73"/>
       <c r="D18" s="68" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -17422,38 +17413,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>969</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>970</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>971</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -17462,7 +17453,7 @@
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67"/>
       <c r="B5" s="65" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="74"/>
@@ -17471,7 +17462,7 @@
       <c r="A6" s="67"/>
       <c r="B6" s="67"/>
       <c r="C6" s="65" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D6" s="74"/>
     </row>
@@ -17479,14 +17470,14 @@
       <c r="A7" s="67"/>
       <c r="B7" s="67"/>
       <c r="C7" s="65" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="67"/>
       <c r="B8" s="65" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="74"/>
@@ -17495,7 +17486,7 @@
       <c r="A9" s="67"/>
       <c r="B9" s="67"/>
       <c r="C9" s="65" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D9" s="74"/>
     </row>
@@ -17503,7 +17494,7 @@
       <c r="A10" s="67"/>
       <c r="B10" s="67"/>
       <c r="C10" s="65" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D10" s="74"/>
     </row>
@@ -17511,7 +17502,7 @@
       <c r="A11" s="67"/>
       <c r="B11" s="67"/>
       <c r="C11" s="65" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D11" s="74"/>
     </row>
@@ -17519,7 +17510,7 @@
       <c r="A12" s="67"/>
       <c r="B12" s="67"/>
       <c r="C12" s="65" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D12" s="74"/>
     </row>
@@ -17527,7 +17518,7 @@
       <c r="A13" s="67"/>
       <c r="B13" s="67"/>
       <c r="C13" s="65" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D13" s="74"/>
     </row>
@@ -17535,14 +17526,14 @@
       <c r="A14" s="67"/>
       <c r="B14" s="67"/>
       <c r="C14" s="65" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="67"/>
       <c r="B15" s="65" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C15" s="67"/>
       <c r="D15" s="74"/>
@@ -17551,7 +17542,7 @@
       <c r="A16" s="67"/>
       <c r="B16" s="67"/>
       <c r="C16" s="65" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D16" s="74"/>
     </row>
@@ -17559,14 +17550,14 @@
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="65" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D17" s="74"/>
     </row>
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="67"/>
       <c r="B18" s="65" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C18" s="67"/>
       <c r="D18" s="74"/>
@@ -17575,7 +17566,7 @@
       <c r="A19" s="67"/>
       <c r="B19" s="67"/>
       <c r="C19" s="65" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D19" s="74"/>
     </row>
@@ -17583,13 +17574,13 @@
       <c r="A20" s="67"/>
       <c r="B20" s="67"/>
       <c r="C20" s="65" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="D20" s="74"/>
     </row>
     <row r="21" spans="1:4" ht="22">
       <c r="A21" s="65" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -17598,7 +17589,7 @@
     <row r="22" spans="1:4" ht="22">
       <c r="A22" s="67"/>
       <c r="B22" s="65" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="74"/>
@@ -17607,13 +17598,13 @@
       <c r="A23" s="67"/>
       <c r="B23" s="67"/>
       <c r="C23" s="65" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D23" s="74"/>
     </row>
     <row r="24" spans="1:4" ht="22">
       <c r="A24" s="65" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -17622,7 +17613,7 @@
     <row r="25" spans="1:4" ht="22">
       <c r="A25" s="67"/>
       <c r="B25" s="65" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C25" s="75"/>
       <c r="D25" s="74"/>
@@ -17631,14 +17622,14 @@
       <c r="A26" s="67"/>
       <c r="B26" s="67"/>
       <c r="C26" s="65" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D26" s="74"/>
     </row>
     <row r="27" spans="1:4" ht="22">
       <c r="A27" s="67"/>
       <c r="B27" s="65" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C27" s="75"/>
       <c r="D27" s="74"/>
@@ -17647,14 +17638,14 @@
       <c r="A28" s="67"/>
       <c r="B28" s="67"/>
       <c r="C28" s="65" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D28" s="74"/>
     </row>
     <row r="29" spans="1:4" ht="22">
       <c r="A29" s="67"/>
       <c r="B29" s="65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="74"/>
@@ -17663,13 +17654,13 @@
       <c r="A30" s="67"/>
       <c r="B30" s="67"/>
       <c r="C30" s="65" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D30" s="74"/>
     </row>
     <row r="31" spans="1:4" ht="22">
       <c r="A31" s="65" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
@@ -17678,7 +17669,7 @@
     <row r="32" spans="1:4" ht="22">
       <c r="A32" s="67"/>
       <c r="B32" s="65" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C32" s="75"/>
       <c r="D32" s="74"/>
@@ -17687,7 +17678,7 @@
       <c r="A33" s="67"/>
       <c r="B33" s="67"/>
       <c r="C33" s="65" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D33" s="74"/>
     </row>
@@ -17695,14 +17686,14 @@
       <c r="A34" s="67"/>
       <c r="B34" s="67"/>
       <c r="C34" s="65" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D34" s="74"/>
     </row>
     <row r="35" spans="1:4" ht="22">
       <c r="A35" s="67"/>
       <c r="B35" s="65" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C35" s="67"/>
       <c r="D35" s="74"/>
@@ -17711,7 +17702,7 @@
       <c r="A36" s="67"/>
       <c r="B36" s="67"/>
       <c r="C36" s="65" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D36" s="74"/>
     </row>
@@ -17719,7 +17710,7 @@
       <c r="A37" s="67"/>
       <c r="B37" s="67"/>
       <c r="C37" s="65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D37" s="74"/>
     </row>
@@ -17727,13 +17718,13 @@
       <c r="A38" s="67"/>
       <c r="B38" s="67"/>
       <c r="C38" s="65" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D38" s="74"/>
     </row>
     <row r="39" spans="1:4" ht="22">
       <c r="A39" s="65" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B39" s="75"/>
       <c r="C39" s="75"/>
@@ -17742,7 +17733,7 @@
     <row r="40" spans="1:4" ht="22">
       <c r="A40" s="67"/>
       <c r="B40" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C40" s="75"/>
       <c r="D40" s="74"/>
@@ -17751,7 +17742,7 @@
       <c r="A41" s="67"/>
       <c r="B41" s="67"/>
       <c r="C41" s="65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D41" s="74"/>
     </row>
@@ -17867,38 +17858,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>1004</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="72" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49"/>
@@ -17914,7 +17905,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="72" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
@@ -17922,7 +17913,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="72" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B7" s="46"/>
       <c r="C7" s="46"/>
@@ -17930,7 +17921,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="72" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="46"/>
@@ -17938,7 +17929,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="72" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="46"/>
@@ -17946,7 +17937,7 @@
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="72" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -17954,7 +17945,7 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="72" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B11" s="46"/>
       <c r="C11" s="46"/>
@@ -17962,7 +17953,7 @@
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="72" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B12" s="46"/>
       <c r="C12" s="46"/>
@@ -18015,38 +18006,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="185" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+    </row>
+    <row r="2" spans="1:4" ht="49" customHeight="1">
+      <c r="A2" s="186" t="s">
         <v>1014</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-    </row>
-    <row r="2" spans="1:4" ht="49" customHeight="1">
-      <c r="A2" s="185" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="67" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -18054,7 +18045,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -18062,7 +18053,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="67" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -18070,7 +18061,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="67" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -18078,7 +18069,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="67" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -18087,7 +18078,7 @@
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="67"/>
       <c r="B9" s="67" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="68"/>
@@ -18095,7 +18086,7 @@
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="67"/>
       <c r="B10" s="67" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="68"/>
@@ -18103,7 +18094,7 @@
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="67"/>
       <c r="B11" s="67" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="68"/>
@@ -18111,7 +18102,7 @@
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="67"/>
       <c r="B12" s="67" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="68"/>
@@ -18119,7 +18110,7 @@
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="67"/>
       <c r="B13" s="67" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="68"/>
@@ -18142,7 +18133,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -18153,38 +18146,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>1026</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="66" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -18192,7 +18185,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="66" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -18200,7 +18193,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="66" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -18208,7 +18201,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="66" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -18216,7 +18209,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="66" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -18224,7 +18217,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="66" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -18232,7 +18225,7 @@
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="66" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -18240,7 +18233,7 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="66" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -18248,7 +18241,7 @@
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="66" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -18256,7 +18249,7 @@
     </row>
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="66" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -18264,7 +18257,7 @@
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="66" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -18272,7 +18265,7 @@
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="66" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -18280,7 +18273,7 @@
     </row>
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="66" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -18330,38 +18323,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>1040</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="65" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -18370,7 +18363,7 @@
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="66"/>
       <c r="B5" s="65" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="74"/>
@@ -18378,7 +18371,7 @@
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="66"/>
       <c r="B6" s="65" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C6" s="67"/>
       <c r="D6" s="74"/>
@@ -18386,7 +18379,7 @@
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="66"/>
       <c r="B7" s="65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="74"/>
@@ -18394,14 +18387,14 @@
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="66"/>
       <c r="B8" s="65" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="65" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -18410,7 +18403,7 @@
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="66"/>
       <c r="B10" s="65" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C10" s="67"/>
       <c r="D10" s="74"/>
@@ -18418,14 +18411,14 @@
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="66"/>
       <c r="B11" s="65" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="65" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -18475,38 +18468,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="186" t="s">
         <v>1051</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="185" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="67" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -18514,7 +18507,7 @@
     </row>
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
@@ -18522,7 +18515,7 @@
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="67" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -18530,7 +18523,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="67" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -18538,7 +18531,7 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="A8" s="67" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B8" s="67"/>
       <c r="C8" s="67"/>
@@ -18546,7 +18539,7 @@
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="A9" s="67" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B9" s="67"/>
       <c r="C9" s="67"/>
@@ -18554,7 +18547,7 @@
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="67" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -18562,7 +18555,7 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="A11" s="67" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B11" s="67"/>
       <c r="C11" s="67"/>
@@ -18570,7 +18563,7 @@
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="A12" s="67" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="67"/>
@@ -18578,7 +18571,7 @@
     </row>
     <row r="13" spans="1:4" ht="22">
       <c r="A13" s="67" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B13" s="67"/>
       <c r="C13" s="67"/>
@@ -18586,7 +18579,7 @@
     </row>
     <row r="14" spans="1:4" ht="22">
       <c r="A14" s="67" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
@@ -18594,7 +18587,7 @@
     </row>
     <row r="15" spans="1:4" ht="22">
       <c r="A15" s="67" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -18602,7 +18595,7 @@
     </row>
     <row r="16" spans="1:4" ht="22">
       <c r="A16" s="67" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="67"/>
@@ -18610,7 +18603,7 @@
     </row>
     <row r="17" spans="1:4" ht="22">
       <c r="A17" s="67" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -18618,7 +18611,7 @@
     </row>
     <row r="18" spans="1:4" ht="22">
       <c r="A18" s="67" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
@@ -18626,7 +18619,7 @@
     </row>
     <row r="19" spans="1:4" ht="22">
       <c r="A19" s="67" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B19" s="67"/>
       <c r="C19" s="67"/>
@@ -18634,7 +18627,7 @@
     </row>
     <row r="20" spans="1:4" ht="22">
       <c r="A20" s="67" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B20" s="67"/>
       <c r="C20" s="67"/>
@@ -18642,7 +18635,7 @@
     </row>
     <row r="21" spans="1:4" ht="22">
       <c r="A21" s="67" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -18650,7 +18643,7 @@
     </row>
     <row r="22" spans="1:4" ht="22">
       <c r="A22" s="67" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B22" s="67"/>
       <c r="C22" s="67"/>
@@ -18658,7 +18651,7 @@
     </row>
     <row r="23" spans="1:4" ht="22">
       <c r="A23" s="67" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B23" s="67"/>
       <c r="C23" s="67"/>
@@ -18666,7 +18659,7 @@
     </row>
     <row r="24" spans="1:4" ht="22">
       <c r="A24" s="67" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B24" s="67"/>
       <c r="C24" s="67"/>
@@ -18674,7 +18667,7 @@
     </row>
     <row r="25" spans="1:4" ht="22">
       <c r="A25" s="67" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B25" s="67"/>
       <c r="C25" s="67"/>
@@ -18682,7 +18675,7 @@
     </row>
     <row r="26" spans="1:4" ht="22">
       <c r="A26" s="67" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B26" s="67"/>
       <c r="C26" s="67"/>
@@ -18690,7 +18683,7 @@
     </row>
     <row r="27" spans="1:4" ht="22">
       <c r="A27" s="67" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
@@ -18698,7 +18691,7 @@
     </row>
     <row r="28" spans="1:4" ht="22">
       <c r="A28" s="67" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="67"/>
       <c r="C28" s="67"/>
@@ -18706,7 +18699,7 @@
     </row>
     <row r="29" spans="1:4" ht="22">
       <c r="A29" s="67" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
@@ -18714,7 +18707,7 @@
     </row>
     <row r="30" spans="1:4" ht="22">
       <c r="A30" s="67" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
@@ -18722,7 +18715,7 @@
     </row>
     <row r="31" spans="1:4" ht="22">
       <c r="A31" s="67" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
@@ -18730,7 +18723,7 @@
     </row>
     <row r="32" spans="1:4" ht="22">
       <c r="A32" s="67" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B32" s="67"/>
       <c r="C32" s="67"/>
@@ -18738,7 +18731,7 @@
     </row>
     <row r="33" spans="1:4" ht="22">
       <c r="A33" s="67" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B33" s="67"/>
       <c r="C33" s="67"/>
@@ -18774,38 +18767,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="190" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+    </row>
+    <row r="2" spans="1:4" ht="22">
+      <c r="A2" s="188" t="s">
         <v>1083</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
-      <c r="D1" s="189"/>
-    </row>
-    <row r="2" spans="1:4" ht="22">
-      <c r="A2" s="187" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
     </row>
     <row r="3" spans="1:4" ht="23">
       <c r="A3" s="60" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>713</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="C3" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="D3" s="64" t="s">
         <v>715</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22">
       <c r="A4" s="67" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -18814,14 +18807,14 @@
     <row r="5" spans="1:4" ht="22">
       <c r="A5" s="67"/>
       <c r="B5" s="67" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C5" s="67"/>
       <c r="D5" s="74"/>
     </row>
     <row r="6" spans="1:4" ht="22">
       <c r="A6" s="67" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -18829,7 +18822,7 @@
     </row>
     <row r="7" spans="1:4" ht="22">
       <c r="A7" s="67" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -18837,21 +18830,21 @@
     </row>
     <row r="8" spans="1:4" ht="22">
       <c r="B8" s="67" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" ht="22">
       <c r="B9" s="67" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C9" s="67"/>
       <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4" ht="22">
       <c r="A10" s="67" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B10" s="67"/>
       <c r="C10" s="67"/>
@@ -18859,14 +18852,14 @@
     </row>
     <row r="11" spans="1:4" ht="22">
       <c r="B11" s="67" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C11" s="67"/>
       <c r="D11" s="74"/>
     </row>
     <row r="12" spans="1:4" ht="22">
       <c r="B12" s="67" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C12" s="67"/>
       <c r="D12" s="74"/>
@@ -18903,25 +18896,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23">
       <c r="A1" s="40" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1094</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>1095</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>1096</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="40" t="s">
         <v>1097</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>1098</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>1099</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="22">
@@ -18935,10 +18928,10 @@
         <v>219</v>
       </c>
       <c r="D2" s="76" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E2" s="76" t="s">
         <v>1101</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>1102</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>20</v>
@@ -18958,10 +18951,10 @@
         <v>228</v>
       </c>
       <c r="D3" s="76" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E3" s="76" t="s">
         <v>1103</v>
-      </c>
-      <c r="E3" s="76" t="s">
-        <v>1104</v>
       </c>
       <c r="F3" s="18" t="s">
         <v>21</v>
@@ -18979,10 +18972,10 @@
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E4" s="76" t="s">
         <v>1105</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>1106</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>22</v>
@@ -19000,10 +18993,10 @@
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>23</v>
@@ -19019,10 +19012,10 @@
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E6" s="76" t="s">
         <v>1108</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>1109</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>24</v>
@@ -19038,10 +19031,10 @@
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
       <c r="D7" s="76" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E7" s="76" t="s">
         <v>1110</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>1111</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>25</v>
@@ -19057,10 +19050,10 @@
       <c r="B8" s="76"/>
       <c r="C8" s="76"/>
       <c r="D8" s="76" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E8" s="76" t="s">
         <v>1112</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>1113</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>26</v>
@@ -19076,10 +19069,10 @@
       <c r="B9" s="76"/>
       <c r="C9" s="76"/>
       <c r="D9" s="76" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E9" s="76" t="s">
         <v>1114</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>1115</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>27</v>
@@ -19093,7 +19086,7 @@
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="E10" s="76"/>
       <c r="F10" s="18" t="s">
@@ -19220,7 +19213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -19236,16 +19229,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23">
       <c r="A1" s="40" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>1117</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>1118</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D1" s="40" t="s">
         <v>1119</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18">
@@ -19253,13 +19246,13 @@
         <v>44637</v>
       </c>
       <c r="B2" s="80" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>1121</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18">
@@ -19267,13 +19260,13 @@
         <v>44643</v>
       </c>
       <c r="B3" s="80" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>1123</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>1124</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18">
@@ -19281,13 +19274,13 @@
         <v>44677</v>
       </c>
       <c r="B4" s="80" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D4" s="80" t="s">
         <v>1125</v>
-      </c>
-      <c r="C4" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>1126</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38">
@@ -19295,41 +19288,41 @@
         <v>44719</v>
       </c>
       <c r="B5" s="80" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C5" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D5" s="81" t="s">
         <v>1127</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D5" s="81" t="s">
-        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38">
       <c r="A6" s="76" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B6" s="80" t="s">
         <v>1129</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="C6" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D6" s="81" t="s">
         <v>1130</v>
-      </c>
-      <c r="C6" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D6" s="81" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38">
       <c r="A7" s="76" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B7" s="80" t="s">
         <v>1132</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="C7" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D7" s="81" t="s">
         <v>1133</v>
-      </c>
-      <c r="C7" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D7" s="81" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="38">
@@ -19337,27 +19330,27 @@
         <v>45083</v>
       </c>
       <c r="B8" s="80" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D8" s="81" t="s">
         <v>1135</v>
-      </c>
-      <c r="C8" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D8" s="81" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38">
       <c r="A9" s="76" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B9" s="80" t="s">
         <v>1137</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="C9" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>1138</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D9" s="81" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="77" customHeight="1">
@@ -19365,13 +19358,13 @@
         <v>45701</v>
       </c>
       <c r="B10" s="80" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D10" s="80" t="s">
         <v>1171</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18">
@@ -19496,54 +19489,54 @@
       <c r="AA1" s="36"/>
       <c r="AC1" s="39"/>
       <c r="AD1" s="35"/>
-      <c r="AE1" s="172" t="s">
+      <c r="AE1" s="173" t="s">
         <v>90</v>
       </c>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="172"/>
-      <c r="AH1" s="172"/>
+      <c r="AF1" s="173"/>
+      <c r="AG1" s="173"/>
+      <c r="AH1" s="173"/>
     </row>
     <row r="2" spans="1:34" ht="27">
       <c r="A2" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B2" s="35"/>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="173"/>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
       <c r="J2" s="35"/>
-      <c r="K2" s="173" t="s">
+      <c r="K2" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="L2" s="173"/>
-      <c r="M2" s="173"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
       <c r="N2" s="35"/>
       <c r="O2" s="39" t="s">
         <v>94</v>
       </c>
       <c r="P2" s="35"/>
-      <c r="Q2" s="173" t="s">
+      <c r="Q2" s="174" t="s">
         <v>95</v>
       </c>
-      <c r="R2" s="173"/>
+      <c r="R2" s="174"/>
       <c r="S2" s="41"/>
       <c r="T2" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="173" t="s">
+      <c r="V2" s="174" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="173"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="173"/>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="173"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
       <c r="AC2" s="39" t="s">
         <v>97</v>
       </c>
@@ -21017,26 +21010,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="104" customFormat="1" ht="38">
-      <c r="A1" s="174" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="A1" s="175" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
     </row>
     <row r="2" spans="1:7" s="104" customFormat="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
     </row>
     <row r="3" spans="1:7" s="104" customFormat="1" ht="23">
       <c r="A3" s="105" t="s">
@@ -21072,7 +21065,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="109" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="109"/>
       <c r="F4" s="109"/>
@@ -21184,26 +21177,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="104" customFormat="1" ht="38">
-      <c r="A1" s="174" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="A1" s="175" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="175"/>
+      <c r="F1" s="175"/>
+      <c r="G1" s="175"/>
     </row>
     <row r="2" spans="1:7" s="104" customFormat="1" ht="63.75" customHeight="1">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
     </row>
     <row r="3" spans="1:7" s="104" customFormat="1" ht="23">
       <c r="A3" s="105" t="s">
@@ -21239,7 +21232,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="89"/>
       <c r="F4" s="89"/>
@@ -21271,13 +21264,13 @@
         <v>234</v>
       </c>
       <c r="B6" s="108" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="C6" s="89" t="s">
         <v>219</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="89"/>
@@ -21599,26 +21592,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="38">
-      <c r="A1" s="176" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="177" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
       <c r="A3" s="105" t="s">
@@ -21654,7 +21647,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="127" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -21672,7 +21665,7 @@
         <v>219</v>
       </c>
       <c r="D5" s="127" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E5" s="100"/>
       <c r="F5" s="100"/>
@@ -21711,7 +21704,7 @@
         <v>215</v>
       </c>
       <c r="E7" s="100"/>
-      <c r="F7" s="190" t="s">
+      <c r="F7" s="172" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="100" t="s">
@@ -22007,27 +22000,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="38">
-      <c r="A1" s="176" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="177" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="178" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -22065,7 +22058,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="127" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="138"/>
       <c r="F4" s="100"/>
@@ -22148,7 +22141,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="134" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="H8" s="139"/>
     </row>
@@ -22339,27 +22332,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="104" customFormat="1" ht="38">
-      <c r="A1" s="176" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
+      <c r="A1" s="177" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
       <c r="H1" s="117"/>
     </row>
     <row r="2" spans="1:8" s="104" customFormat="1">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="179"/>
       <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8" s="104" customFormat="1" ht="23">
@@ -22397,7 +22390,7 @@
         <v>219</v>
       </c>
       <c r="D4" s="108" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E4" s="100"/>
       <c r="F4" s="100"/>
@@ -22415,7 +22408,7 @@
         <v>228</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E5" s="132"/>
       <c r="F5" s="99"/>
@@ -22489,13 +22482,13 @@
         <v>331</v>
       </c>
       <c r="B9" s="108" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="C9" s="100" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="108" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="100"/>
